--- a/data/output/Pedido_Semana_07_15022026_mascotas_manufacturado.xlsx
+++ b/data/output/Pedido_Semana_07_15022026_mascotas_manufacturado.xlsx
@@ -909,16 +909,16 @@
         <v>2</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="T5" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U5" s="8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" hidden="1">
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>3.22</v>
@@ -1071,7 +1071,7 @@
         <v>3</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="2" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="2" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>322.8</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S10" s="2" t="n">
         <v>0</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T12" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="8" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>17.15</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="2" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="2" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="6" t="n">
         <v>21.9</v>
@@ -2205,7 +2205,7 @@
         <v>2</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S21" s="2" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="2" t="n">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="6" t="n">
         <v>20.33</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="2" t="n">
         <v>0</v>
@@ -2610,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="2" t="n">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         <v>2</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M27" s="6" t="n">
         <v>37.95</v>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" s="2" t="n">
         <v>0</v>
@@ -3744,13 +3744,13 @@
         <v>0</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S40" s="2" t="n">
         <v>5</v>
       </c>
       <c r="T40" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U40" s="8" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="1">
       <c r="A43" s="2" t="inlineStr">
         <is>
           <t>2301090135</t>
@@ -3987,16 +3987,16 @@
         <v>0</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" s="2" t="n">
         <v>3</v>
       </c>
       <c r="T43" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U43" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4404,7 +4404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="1">
       <c r="A49" s="2" t="inlineStr">
         <is>
           <t>2201010003</t>
@@ -4473,16 +4473,16 @@
         <v>0</v>
       </c>
       <c r="R49" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S49" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T49" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" hidden="1">
@@ -4534,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" s="6" t="n">
         <v>5.95</v>
@@ -4615,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" s="6" t="n">
         <v>5.95</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="R52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" s="2" t="n">
         <v>0</v>
@@ -4797,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="R53" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S53" s="2" t="n">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>8</v>
       </c>
       <c r="R54" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S54" s="2" t="n">
         <v>0</v>
@@ -4939,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" s="6" t="n">
         <v>37.57</v>
@@ -5425,7 +5425,7 @@
         <v>1</v>
       </c>
       <c r="L61" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M61" s="6" t="n">
         <v>46.55</v>
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S61" s="2" t="n">
         <v>0</v>
@@ -5587,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="L63" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" s="6" t="n">
         <v>17.1</v>
@@ -5749,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="L65" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" s="6" t="n">
         <v>2.28</v>
@@ -5850,7 +5850,7 @@
         <v>3</v>
       </c>
       <c r="R66" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S66" s="2" t="n">
         <v>0</v>
@@ -6316,7 +6316,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72" s="6" t="n">
         <v>3.12</v>
@@ -6417,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="R73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S73" s="2" t="n">
         <v>0</v>
@@ -6498,16 +6498,16 @@
         <v>2</v>
       </c>
       <c r="R74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S74" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T74" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U74" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" hidden="1">
@@ -6640,7 +6640,7 @@
         <v>1</v>
       </c>
       <c r="L76" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76" s="6" t="n">
         <v>6.02</v>
@@ -7045,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="L81" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81" s="6" t="n">
         <v>7.98</v>
@@ -7126,7 +7126,7 @@
         <v>2</v>
       </c>
       <c r="L82" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M82" s="6" t="n">
         <v>38.75</v>
@@ -7531,7 +7531,7 @@
         <v>2</v>
       </c>
       <c r="L87" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M87" s="6" t="n">
         <v>25.12</v>
@@ -7693,7 +7693,7 @@
         <v>1</v>
       </c>
       <c r="L89" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89" s="6" t="n">
         <v>3.88</v>
@@ -7875,7 +7875,7 @@
         <v>0</v>
       </c>
       <c r="R91" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S91" s="2" t="n">
         <v>0</v>
@@ -8199,16 +8199,16 @@
         <v>2</v>
       </c>
       <c r="R95" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S95" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T95" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U95" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" hidden="1">
@@ -8280,13 +8280,13 @@
         <v>0</v>
       </c>
       <c r="R96" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S96" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T96" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U96" s="8" t="n">
         <v>0</v>
@@ -8341,7 +8341,7 @@
         <v>1</v>
       </c>
       <c r="L97" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M97" s="6" t="n">
         <v>2.05</v>
@@ -8697,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" hidden="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
           <t>2404030021</t>
@@ -8766,16 +8766,16 @@
         <v>0</v>
       </c>
       <c r="R102" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S102" s="2" t="n">
         <v>3</v>
       </c>
       <c r="T102" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U102" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" hidden="1">
@@ -8827,7 +8827,7 @@
         <v>1</v>
       </c>
       <c r="L103" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M103" s="6" t="n">
         <v>35.78</v>
@@ -8847,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="R103" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S103" s="2" t="n">
         <v>5</v>
       </c>
       <c r="T103" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U103" s="8" t="n">
         <v>0</v>
@@ -8908,7 +8908,7 @@
         <v>1</v>
       </c>
       <c r="L104" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M104" s="6" t="n">
         <v>2.12</v>
@@ -9333,13 +9333,13 @@
         <v>0</v>
       </c>
       <c r="R109" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S109" s="2" t="n">
         <v>5</v>
       </c>
       <c r="T109" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U109" s="8" t="n">
         <v>0</v>
@@ -9414,7 +9414,7 @@
         <v>0</v>
       </c>
       <c r="R110" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S110" s="2" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="R111" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S111" s="2" t="n">
         <v>0</v>
@@ -9556,7 +9556,7 @@
         <v>1</v>
       </c>
       <c r="L112" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M112" s="6" t="n">
         <v>1.92</v>
@@ -9576,7 +9576,7 @@
         <v>2</v>
       </c>
       <c r="R112" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S112" s="2" t="n">
         <v>0</v>
@@ -9657,7 +9657,7 @@
         <v>0</v>
       </c>
       <c r="R113" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S113" s="2" t="n">
         <v>0</v>
@@ -9819,13 +9819,13 @@
         <v>0</v>
       </c>
       <c r="R115" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S115" s="2" t="n">
         <v>4</v>
       </c>
       <c r="T115" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U115" s="8" t="n">
         <v>0</v>
@@ -9900,13 +9900,13 @@
         <v>0</v>
       </c>
       <c r="R116" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S116" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T116" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U116" s="8" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>1</v>
       </c>
       <c r="L119" s="3" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="M119" s="6" t="n">
         <v>5.25</v>
@@ -10143,13 +10143,13 @@
         <v>0</v>
       </c>
       <c r="R119" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S119" s="2" t="n">
         <v>9</v>
       </c>
       <c r="T119" s="3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U119" s="8" t="n">
         <v>0</v>
@@ -10204,7 +10204,7 @@
         <v>1</v>
       </c>
       <c r="L120" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M120" s="6" t="n">
         <v>3.08</v>
@@ -10224,13 +10224,13 @@
         <v>0</v>
       </c>
       <c r="R120" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S120" s="2" t="n">
         <v>24</v>
       </c>
       <c r="T120" s="3" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="U120" s="8" t="n">
         <v>0</v>
@@ -10285,7 +10285,7 @@
         <v>1</v>
       </c>
       <c r="L121" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M121" s="6" t="n">
         <v>1</v>
@@ -10305,7 +10305,7 @@
         <v>0</v>
       </c>
       <c r="R121" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S121" s="2" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>1</v>
       </c>
       <c r="L122" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M122" s="6" t="n">
         <v>2.1</v>
@@ -10386,7 +10386,7 @@
         <v>0</v>
       </c>
       <c r="R122" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S122" s="2" t="n">
         <v>0</v>
@@ -10447,7 +10447,7 @@
         <v>1</v>
       </c>
       <c r="L123" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M123" s="6" t="n">
         <v>0.4</v>
@@ -10467,16 +10467,16 @@
         <v>2</v>
       </c>
       <c r="R123" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S123" s="2" t="n">
         <v>3</v>
       </c>
       <c r="T123" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U123" s="8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -10528,7 +10528,7 @@
         <v>2</v>
       </c>
       <c r="L124" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M124" s="6" t="n">
         <v>2.38</v>
@@ -10548,7 +10548,7 @@
         <v>2</v>
       </c>
       <c r="R124" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S124" s="2" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>2</v>
       </c>
       <c r="L125" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M125" s="6" t="n">
         <v>0</v>
@@ -10629,7 +10629,7 @@
         <v>7</v>
       </c>
       <c r="R125" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S125" s="2" t="n">
         <v>0</v>
@@ -10771,7 +10771,7 @@
         <v>1</v>
       </c>
       <c r="L127" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M127" s="6" t="n">
         <v>0.55</v>
@@ -10791,13 +10791,13 @@
         <v>0</v>
       </c>
       <c r="R127" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S127" s="2" t="n">
         <v>16</v>
       </c>
       <c r="T127" s="3" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="U127" s="8" t="n">
         <v>0</v>
@@ -10852,7 +10852,7 @@
         <v>1</v>
       </c>
       <c r="L128" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M128" s="6" t="n">
         <v>2.9</v>
@@ -11034,13 +11034,13 @@
         <v>0</v>
       </c>
       <c r="R130" s="2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="S130" s="2" t="n">
         <v>14</v>
       </c>
       <c r="T130" s="3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U130" s="8" t="n">
         <v>0</v>
@@ -11115,7 +11115,7 @@
         <v>4</v>
       </c>
       <c r="R131" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S131" s="2" t="n">
         <v>0</v>
@@ -11196,7 +11196,7 @@
         <v>2</v>
       </c>
       <c r="R132" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S132" s="2" t="n">
         <v>0</v>
@@ -11277,13 +11277,13 @@
         <v>0</v>
       </c>
       <c r="R133" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S133" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T133" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U133" s="8" t="n">
         <v>0</v>
@@ -11338,7 +11338,7 @@
         <v>2</v>
       </c>
       <c r="L134" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M134" s="6" t="n">
         <v>2.62</v>
@@ -11358,7 +11358,7 @@
         <v>7</v>
       </c>
       <c r="R134" s="2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S134" s="2" t="n">
         <v>0</v>
@@ -11439,7 +11439,7 @@
         <v>4</v>
       </c>
       <c r="R135" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S135" s="2" t="n">
         <v>0</v>
@@ -11581,7 +11581,7 @@
         <v>1</v>
       </c>
       <c r="L137" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M137" s="6" t="n">
         <v>5.1</v>
@@ -11763,13 +11763,13 @@
         <v>0</v>
       </c>
       <c r="R139" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S139" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T139" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U139" s="8" t="n">
         <v>0</v>
@@ -11844,13 +11844,13 @@
         <v>0</v>
       </c>
       <c r="R140" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S140" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T140" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U140" s="8" t="n">
         <v>0</v>
@@ -11986,7 +11986,7 @@
         <v>1</v>
       </c>
       <c r="L142" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M142" s="6" t="n">
         <v>8.6</v>
@@ -12148,7 +12148,7 @@
         <v>1</v>
       </c>
       <c r="L144" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M144" s="6" t="n">
         <v>7.22</v>
@@ -12249,13 +12249,13 @@
         <v>0</v>
       </c>
       <c r="R145" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S145" s="2" t="n">
         <v>5</v>
       </c>
       <c r="T145" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U145" s="8" t="n">
         <v>0</v>
@@ -12310,7 +12310,7 @@
         <v>1</v>
       </c>
       <c r="L146" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M146" s="6" t="n">
         <v>4.3</v>
@@ -12816,13 +12816,13 @@
         <v>0</v>
       </c>
       <c r="R152" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S152" s="2" t="n">
         <v>5</v>
       </c>
       <c r="T152" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U152" s="8" t="n">
         <v>0</v>
@@ -12897,16 +12897,16 @@
         <v>3</v>
       </c>
       <c r="R153" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S153" s="2" t="n">
         <v>3</v>
       </c>
       <c r="T153" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U153" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" hidden="1">
@@ -13221,7 +13221,7 @@
         <v>2</v>
       </c>
       <c r="R157" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S157" s="2" t="n">
         <v>0</v>
@@ -13302,7 +13302,7 @@
         <v>0</v>
       </c>
       <c r="R158" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S158" s="2" t="n">
         <v>0</v>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="R161" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S161" s="2" t="n">
         <v>0</v>
@@ -13626,7 +13626,7 @@
         <v>1</v>
       </c>
       <c r="R162" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S162" s="2" t="n">
         <v>0</v>
@@ -14031,13 +14031,13 @@
         <v>0</v>
       </c>
       <c r="R167" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S167" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T167" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U167" s="8" t="n">
         <v>0</v>
@@ -14436,7 +14436,7 @@
         <v>2</v>
       </c>
       <c r="R172" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S172" s="2" t="n">
         <v>0</v>
@@ -14497,7 +14497,7 @@
         <v>1</v>
       </c>
       <c r="L173" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M173" s="6" t="n">
         <v>1.68</v>
@@ -14578,7 +14578,7 @@
         <v>1</v>
       </c>
       <c r="L174" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M174" s="6" t="n">
         <v>3.35</v>
@@ -14679,7 +14679,7 @@
         <v>0</v>
       </c>
       <c r="R175" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S175" s="2" t="n">
         <v>0</v>
@@ -14760,13 +14760,13 @@
         <v>0</v>
       </c>
       <c r="R176" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S176" s="2" t="n">
         <v>6</v>
       </c>
       <c r="T176" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U176" s="8" t="n">
         <v>0</v>
@@ -15084,13 +15084,13 @@
         <v>0</v>
       </c>
       <c r="R180" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S180" s="2" t="n">
         <v>9</v>
       </c>
       <c r="T180" s="3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U180" s="8" t="n">
         <v>0</v>
@@ -15307,7 +15307,7 @@
         <v>1</v>
       </c>
       <c r="L183" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M183" s="6" t="n">
         <v>30.5</v>
@@ -15570,13 +15570,13 @@
         <v>0</v>
       </c>
       <c r="R186" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S186" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T186" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U186" s="8" t="n">
         <v>0</v>
@@ -15651,16 +15651,16 @@
         <v>1</v>
       </c>
       <c r="R187" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S187" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T187" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U187" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" hidden="1">
@@ -15874,7 +15874,7 @@
         <v>1</v>
       </c>
       <c r="L190" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M190" s="6" t="n">
         <v>2</v>
@@ -15975,13 +15975,13 @@
         <v>0</v>
       </c>
       <c r="R191" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S191" s="2" t="n">
         <v>3</v>
       </c>
       <c r="T191" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U191" s="8" t="n">
         <v>0</v>
@@ -16036,7 +16036,7 @@
         <v>3</v>
       </c>
       <c r="L192" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M192" s="6" t="n">
         <v>11.72</v>
@@ -16056,13 +16056,13 @@
         <v>0</v>
       </c>
       <c r="R192" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S192" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T192" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U192" s="8" t="n">
         <v>0</v>
@@ -16117,7 +16117,7 @@
         <v>1</v>
       </c>
       <c r="L193" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M193" s="6" t="n">
         <v>1.68</v>
@@ -16137,13 +16137,13 @@
         <v>0</v>
       </c>
       <c r="R193" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S193" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T193" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U193" s="8" t="n">
         <v>0</v>
@@ -16218,13 +16218,13 @@
         <v>0</v>
       </c>
       <c r="R194" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S194" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T194" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U194" s="8" t="n">
         <v>0</v>
@@ -16279,7 +16279,7 @@
         <v>2</v>
       </c>
       <c r="L195" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M195" s="6" t="n">
         <v>6.7</v>
@@ -16299,13 +16299,13 @@
         <v>0</v>
       </c>
       <c r="R195" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S195" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T195" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U195" s="8" t="n">
         <v>0</v>
@@ -16360,7 +16360,7 @@
         <v>1</v>
       </c>
       <c r="L196" s="3" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="M196" s="6" t="n">
         <v>1.68</v>
@@ -16380,7 +16380,7 @@
         <v>0</v>
       </c>
       <c r="R196" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S196" s="2" t="n">
         <v>0</v>
@@ -16441,7 +16441,7 @@
         <v>1</v>
       </c>
       <c r="L197" s="3" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="M197" s="6" t="n">
         <v>1.68</v>
@@ -16461,7 +16461,7 @@
         <v>0</v>
       </c>
       <c r="R197" s="2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S197" s="2" t="n">
         <v>0</v>
@@ -16522,7 +16522,7 @@
         <v>1</v>
       </c>
       <c r="L198" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M198" s="6" t="n">
         <v>1.68</v>
@@ -16542,13 +16542,13 @@
         <v>0</v>
       </c>
       <c r="R198" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S198" s="2" t="n">
         <v>4</v>
       </c>
       <c r="T198" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U198" s="8" t="n">
         <v>0</v>
@@ -16603,7 +16603,7 @@
         <v>2</v>
       </c>
       <c r="L199" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M199" s="6" t="n">
         <v>6.7</v>
@@ -16623,13 +16623,13 @@
         <v>0</v>
       </c>
       <c r="R199" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S199" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T199" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U199" s="8" t="n">
         <v>0</v>
@@ -16704,13 +16704,13 @@
         <v>0</v>
       </c>
       <c r="R200" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S200" s="2" t="n">
         <v>4</v>
       </c>
       <c r="T200" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U200" s="8" t="n">
         <v>0</v>
@@ -16846,7 +16846,7 @@
         <v>1</v>
       </c>
       <c r="L202" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M202" s="6" t="n">
         <v>20.2</v>
@@ -17271,7 +17271,7 @@
         <v>0</v>
       </c>
       <c r="R207" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S207" s="2" t="n">
         <v>0</v>
@@ -17298,7 +17298,7 @@
         </is>
       </c>
       <c r="C210" s="5" t="n">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="211">
@@ -17418,7 +17418,7 @@
         </is>
       </c>
       <c r="C221" s="5" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Pedido_Semana_07_15022026_mascotas_manufacturado.xlsx
+++ b/data/output/Pedido_Semana_07_15022026_mascotas_manufacturado.xlsx
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="6" t="n">
         <v>3.8</v>
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="6" t="n">
         <v>3.8</v>
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="6" t="n">
         <v>3.22</v>
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>3.22</v>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="6" t="n">
         <v>64.90000000000001</v>
@@ -1132,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="6" t="n">
         <v>97.34999999999999</v>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="6" t="n">
         <v>35.7</v>
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>322.8</v>
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>58.85</v>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="6" t="n">
         <v>95.8</v>
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>53.8</v>
@@ -1618,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>17.15</v>
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="6" t="n">
         <v>74.12</v>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="6" t="n">
         <v>74.12</v>
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="6" t="n">
         <v>70.53</v>
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="6" t="n">
         <v>29.12</v>
@@ -2023,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="6" t="n">
         <v>78.65000000000001</v>
@@ -2104,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="6" t="n">
         <v>21.9</v>
@@ -2185,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="6" t="n">
         <v>94.40000000000001</v>
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>39.15</v>
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="6" t="n">
         <v>20.33</v>
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="6" t="n">
         <v>20.4</v>
@@ -2509,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="6" t="n">
         <v>1.95</v>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="6" t="n">
         <v>2.3</v>
@@ -2671,7 +2671,7 @@
         <v>2</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27" s="6" t="n">
         <v>37.95</v>
@@ -2752,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="6" t="n">
         <v>6.42</v>
@@ -2833,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="6" t="n">
         <v>2.03</v>
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="6" t="n">
         <v>54.8</v>
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="6" t="n">
         <v>31.78</v>
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="6" t="n">
         <v>43.5</v>
@@ -3157,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="6" t="n">
         <v>27.4</v>
@@ -3238,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="6" t="n">
         <v>44.02</v>
@@ -3319,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="6" t="n">
         <v>45.6</v>
@@ -3400,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="6" t="n">
         <v>45.58</v>
@@ -3481,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="6" t="n">
         <v>83.38</v>
@@ -3562,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="6" t="n">
         <v>47.18</v>
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="6" t="n">
         <v>45.58</v>
@@ -3724,7 +3724,7 @@
         <v>2</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M40" s="6" t="n">
         <v>7.6</v>
@@ -3805,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="6" t="n">
         <v>7.4</v>
@@ -3886,7 +3886,7 @@
         <v>2</v>
       </c>
       <c r="L42" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M42" s="6" t="n">
         <v>18</v>
@@ -3967,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="6" t="n">
         <v>5.2</v>
@@ -4048,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="6" t="n">
         <v>1.92</v>
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="6" t="n">
         <v>1.92</v>
@@ -4210,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="6" t="n">
         <v>1.92</v>
@@ -4291,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="6" t="n">
         <v>11.82</v>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="6" t="n">
         <v>4.32</v>
@@ -4453,7 +4453,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="6" t="n">
         <v>41.6</v>
@@ -4534,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="6" t="n">
         <v>5.95</v>
@@ -4615,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="6" t="n">
         <v>5.95</v>
@@ -4696,7 +4696,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="6" t="n">
         <v>5</v>
@@ -4777,7 +4777,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" s="6" t="n">
         <v>37.2</v>
@@ -4858,7 +4858,7 @@
         <v>2</v>
       </c>
       <c r="L54" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M54" s="6" t="n">
         <v>178.35</v>
@@ -4939,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" s="6" t="n">
         <v>37.57</v>
@@ -5020,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" s="6" t="n">
         <v>31.32</v>
@@ -5101,7 +5101,7 @@
         <v>1</v>
       </c>
       <c r="L57" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="6" t="n">
         <v>101.5</v>
@@ -5182,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="L58" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" s="6" t="n">
         <v>33.03</v>
@@ -5263,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" s="6" t="n">
         <v>10.28</v>
@@ -5344,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" s="6" t="n">
         <v>13.3</v>
@@ -5425,7 +5425,7 @@
         <v>1</v>
       </c>
       <c r="L61" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" s="6" t="n">
         <v>46.55</v>
@@ -5506,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="L62" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" s="6" t="n">
         <v>61.85</v>
@@ -5587,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="L63" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" s="6" t="n">
         <v>17.1</v>
@@ -5668,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="L64" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" s="6" t="n">
         <v>4.72</v>
@@ -5749,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="L65" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" s="6" t="n">
         <v>2.28</v>
@@ -5830,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="L66" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" s="6" t="n">
         <v>17.55</v>
@@ -5911,7 +5911,7 @@
         <v>1</v>
       </c>
       <c r="L67" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" s="6" t="n">
         <v>73.95</v>
@@ -5992,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" s="6" t="n">
         <v>29.55</v>
@@ -6073,7 +6073,7 @@
         <v>1</v>
       </c>
       <c r="L69" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" s="6" t="n">
         <v>50.08</v>
@@ -6154,7 +6154,7 @@
         <v>1</v>
       </c>
       <c r="L70" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" s="6" t="n">
         <v>4.55</v>
@@ -6235,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="L71" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" s="6" t="n">
         <v>3.18</v>
@@ -6316,7 +6316,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" s="6" t="n">
         <v>3.12</v>
@@ -6397,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="L73" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" s="6" t="n">
         <v>41.68</v>
@@ -6478,7 +6478,7 @@
         <v>1</v>
       </c>
       <c r="L74" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" s="6" t="n">
         <v>12.25</v>
@@ -6559,7 +6559,7 @@
         <v>1</v>
       </c>
       <c r="L75" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" s="6" t="n">
         <v>9.220000000000001</v>
@@ -6640,7 +6640,7 @@
         <v>1</v>
       </c>
       <c r="L76" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" s="6" t="n">
         <v>6.02</v>
@@ -6721,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="L77" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" s="6" t="n">
         <v>9.65</v>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78" s="6" t="n">
         <v>9.949999999999999</v>
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="L79" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79" s="6" t="n">
         <v>28.25</v>
@@ -6964,7 +6964,7 @@
         <v>1</v>
       </c>
       <c r="L80" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" s="6" t="n">
         <v>0</v>
@@ -7045,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="L81" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" s="6" t="n">
         <v>7.98</v>
@@ -7126,7 +7126,7 @@
         <v>2</v>
       </c>
       <c r="L82" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M82" s="6" t="n">
         <v>38.75</v>
@@ -7207,7 +7207,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" s="6" t="n">
         <v>16</v>
@@ -7288,7 +7288,7 @@
         <v>1</v>
       </c>
       <c r="L84" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" s="6" t="n">
         <v>264.1</v>
@@ -7369,7 +7369,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" s="6" t="n">
         <v>103.35</v>
@@ -7450,7 +7450,7 @@
         <v>1</v>
       </c>
       <c r="L86" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" s="6" t="n">
         <v>145.1</v>
@@ -7531,7 +7531,7 @@
         <v>2</v>
       </c>
       <c r="L87" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M87" s="6" t="n">
         <v>25.12</v>
@@ -7612,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="L88" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" s="6" t="n">
         <v>5.4</v>
@@ -7693,7 +7693,7 @@
         <v>1</v>
       </c>
       <c r="L89" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" s="6" t="n">
         <v>3.88</v>
@@ -7774,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="L90" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90" s="6" t="n">
         <v>8.18</v>
@@ -7855,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="L91" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91" s="6" t="n">
         <v>5.85</v>
@@ -7936,7 +7936,7 @@
         <v>1</v>
       </c>
       <c r="L92" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" s="6" t="n">
         <v>27.6</v>
@@ -8017,7 +8017,7 @@
         <v>1</v>
       </c>
       <c r="L93" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" s="6" t="n">
         <v>27.2</v>
@@ -8098,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="L94" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94" s="6" t="n">
         <v>19</v>
@@ -8179,7 +8179,7 @@
         <v>1</v>
       </c>
       <c r="L95" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95" s="6" t="n">
         <v>2.28</v>
@@ -8260,7 +8260,7 @@
         <v>1</v>
       </c>
       <c r="L96" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" s="6" t="n">
         <v>2.25</v>
@@ -8341,7 +8341,7 @@
         <v>1</v>
       </c>
       <c r="L97" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97" s="6" t="n">
         <v>2.05</v>
@@ -8422,7 +8422,7 @@
         <v>2</v>
       </c>
       <c r="L98" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M98" s="6" t="n">
         <v>9.15</v>
@@ -8503,7 +8503,7 @@
         <v>1</v>
       </c>
       <c r="L99" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99" s="6" t="n">
         <v>29.38</v>
@@ -8584,7 +8584,7 @@
         <v>1</v>
       </c>
       <c r="L100" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100" s="6" t="n">
         <v>0</v>
@@ -8665,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="L101" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101" s="6" t="n">
         <v>26.75</v>
@@ -8746,7 +8746,7 @@
         <v>1</v>
       </c>
       <c r="L102" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M102" s="6" t="n">
         <v>22.6</v>
@@ -8827,7 +8827,7 @@
         <v>1</v>
       </c>
       <c r="L103" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103" s="6" t="n">
         <v>35.78</v>
@@ -8908,7 +8908,7 @@
         <v>1</v>
       </c>
       <c r="L104" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M104" s="6" t="n">
         <v>2.12</v>
@@ -8989,7 +8989,7 @@
         <v>1</v>
       </c>
       <c r="L105" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M105" s="6" t="n">
         <v>3.3</v>
@@ -9070,7 +9070,7 @@
         <v>1</v>
       </c>
       <c r="L106" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106" s="6" t="n">
         <v>0.82</v>
@@ -9151,7 +9151,7 @@
         <v>1</v>
       </c>
       <c r="L107" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107" s="6" t="n">
         <v>0.82</v>
@@ -9232,7 +9232,7 @@
         <v>1</v>
       </c>
       <c r="L108" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108" s="6" t="n">
         <v>7.38</v>
@@ -9313,7 +9313,7 @@
         <v>1</v>
       </c>
       <c r="L109" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" s="6" t="n">
         <v>14.08</v>
@@ -9394,7 +9394,7 @@
         <v>1</v>
       </c>
       <c r="L110" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110" s="6" t="n">
         <v>10.5</v>
@@ -9475,7 +9475,7 @@
         <v>1</v>
       </c>
       <c r="L111" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111" s="6" t="n">
         <v>1.92</v>
@@ -9556,7 +9556,7 @@
         <v>1</v>
       </c>
       <c r="L112" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" s="6" t="n">
         <v>1.92</v>
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="L113" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M113" s="6" t="n">
         <v>3.82</v>
@@ -9718,7 +9718,7 @@
         <v>1</v>
       </c>
       <c r="L114" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114" s="6" t="n">
         <v>2.38</v>
@@ -9799,7 +9799,7 @@
         <v>1</v>
       </c>
       <c r="L115" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115" s="6" t="n">
         <v>2.38</v>
@@ -9880,7 +9880,7 @@
         <v>1</v>
       </c>
       <c r="L116" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M116" s="6" t="n">
         <v>13.45</v>
@@ -9961,7 +9961,7 @@
         <v>1</v>
       </c>
       <c r="L117" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M117" s="6" t="n">
         <v>2.9</v>
@@ -10042,7 +10042,7 @@
         <v>1</v>
       </c>
       <c r="L118" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118" s="6" t="n">
         <v>5.88</v>
@@ -10123,7 +10123,7 @@
         <v>1</v>
       </c>
       <c r="L119" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M119" s="6" t="n">
         <v>5.25</v>
@@ -10204,7 +10204,7 @@
         <v>1</v>
       </c>
       <c r="L120" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M120" s="6" t="n">
         <v>3.08</v>
@@ -10285,7 +10285,7 @@
         <v>1</v>
       </c>
       <c r="L121" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M121" s="6" t="n">
         <v>1</v>
@@ -10366,7 +10366,7 @@
         <v>1</v>
       </c>
       <c r="L122" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M122" s="6" t="n">
         <v>2.1</v>
@@ -10447,7 +10447,7 @@
         <v>1</v>
       </c>
       <c r="L123" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M123" s="6" t="n">
         <v>0.4</v>
@@ -10528,7 +10528,7 @@
         <v>2</v>
       </c>
       <c r="L124" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M124" s="6" t="n">
         <v>2.38</v>
@@ -10609,7 +10609,7 @@
         <v>2</v>
       </c>
       <c r="L125" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M125" s="6" t="n">
         <v>0</v>
@@ -10690,7 +10690,7 @@
         <v>1</v>
       </c>
       <c r="L126" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M126" s="6" t="n">
         <v>12</v>
@@ -10771,7 +10771,7 @@
         <v>1</v>
       </c>
       <c r="L127" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M127" s="6" t="n">
         <v>0.55</v>
@@ -10852,7 +10852,7 @@
         <v>1</v>
       </c>
       <c r="L128" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M128" s="6" t="n">
         <v>2.9</v>
@@ -10933,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="L129" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129" s="6" t="n">
         <v>2.9</v>
@@ -11014,7 +11014,7 @@
         <v>6</v>
       </c>
       <c r="L130" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M130" s="6" t="n">
         <v>4.75</v>
@@ -11095,7 +11095,7 @@
         <v>1</v>
       </c>
       <c r="L131" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M131" s="6" t="n">
         <v>3.68</v>
@@ -11176,7 +11176,7 @@
         <v>1</v>
       </c>
       <c r="L132" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M132" s="6" t="n">
         <v>0.5</v>
@@ -11257,7 +11257,7 @@
         <v>1</v>
       </c>
       <c r="L133" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133" s="6" t="n">
         <v>1.68</v>
@@ -11338,7 +11338,7 @@
         <v>2</v>
       </c>
       <c r="L134" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M134" s="6" t="n">
         <v>2.62</v>
@@ -11419,7 +11419,7 @@
         <v>1</v>
       </c>
       <c r="L135" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M135" s="6" t="n">
         <v>9.07</v>
@@ -11500,7 +11500,7 @@
         <v>1</v>
       </c>
       <c r="L136" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M136" s="6" t="n">
         <v>65.62</v>
@@ -11581,7 +11581,7 @@
         <v>1</v>
       </c>
       <c r="L137" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M137" s="6" t="n">
         <v>5.1</v>
@@ -11662,7 +11662,7 @@
         <v>1</v>
       </c>
       <c r="L138" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M138" s="6" t="n">
         <v>3.5</v>
@@ -11743,7 +11743,7 @@
         <v>1</v>
       </c>
       <c r="L139" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M139" s="6" t="n">
         <v>3.68</v>
@@ -11824,7 +11824,7 @@
         <v>1</v>
       </c>
       <c r="L140" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M140" s="6" t="n">
         <v>6.78</v>
@@ -11905,7 +11905,7 @@
         <v>1</v>
       </c>
       <c r="L141" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M141" s="6" t="n">
         <v>1.88</v>
@@ -11986,7 +11986,7 @@
         <v>1</v>
       </c>
       <c r="L142" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M142" s="6" t="n">
         <v>8.6</v>
@@ -12067,7 +12067,7 @@
         <v>1</v>
       </c>
       <c r="L143" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M143" s="6" t="n">
         <v>8.75</v>
@@ -12148,7 +12148,7 @@
         <v>1</v>
       </c>
       <c r="L144" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M144" s="6" t="n">
         <v>7.22</v>
@@ -12229,7 +12229,7 @@
         <v>1</v>
       </c>
       <c r="L145" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M145" s="6" t="n">
         <v>7.48</v>
@@ -12310,7 +12310,7 @@
         <v>1</v>
       </c>
       <c r="L146" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M146" s="6" t="n">
         <v>4.3</v>
@@ -12391,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="L147" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M147" s="6" t="n">
         <v>2.68</v>
@@ -12472,7 +12472,7 @@
         <v>1</v>
       </c>
       <c r="L148" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M148" s="6" t="n">
         <v>1.33</v>
@@ -12553,7 +12553,7 @@
         <v>1</v>
       </c>
       <c r="L149" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M149" s="6" t="n">
         <v>2.6</v>
@@ -12634,7 +12634,7 @@
         <v>1</v>
       </c>
       <c r="L150" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M150" s="6" t="n">
         <v>2.65</v>
@@ -12715,7 +12715,7 @@
         <v>1</v>
       </c>
       <c r="L151" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M151" s="6" t="n">
         <v>2</v>
@@ -12796,7 +12796,7 @@
         <v>1</v>
       </c>
       <c r="L152" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M152" s="6" t="n">
         <v>5.62</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="L153" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M153" s="6" t="n">
         <v>1.95</v>
@@ -12958,7 +12958,7 @@
         <v>1</v>
       </c>
       <c r="L154" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M154" s="6" t="n">
         <v>2.92</v>
@@ -13039,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="L155" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M155" s="6" t="n">
         <v>22.32</v>
@@ -13120,7 +13120,7 @@
         <v>1</v>
       </c>
       <c r="L156" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M156" s="6" t="n">
         <v>3.32</v>
@@ -13201,7 +13201,7 @@
         <v>1</v>
       </c>
       <c r="L157" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M157" s="6" t="n">
         <v>1.68</v>
@@ -13282,7 +13282,7 @@
         <v>1</v>
       </c>
       <c r="L158" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M158" s="6" t="n">
         <v>9.699999999999999</v>
@@ -13363,7 +13363,7 @@
         <v>1</v>
       </c>
       <c r="L159" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M159" s="6" t="n">
         <v>44.3</v>
@@ -13444,7 +13444,7 @@
         <v>1</v>
       </c>
       <c r="L160" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M160" s="6" t="n">
         <v>26.65</v>
@@ -13525,7 +13525,7 @@
         <v>1</v>
       </c>
       <c r="L161" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M161" s="6" t="n">
         <v>138.25</v>
@@ -13606,7 +13606,7 @@
         <v>1</v>
       </c>
       <c r="L162" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M162" s="6" t="n">
         <v>138.25</v>
@@ -13687,7 +13687,7 @@
         <v>1</v>
       </c>
       <c r="L163" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M163" s="6" t="n">
         <v>128.5</v>
@@ -13768,7 +13768,7 @@
         <v>1</v>
       </c>
       <c r="L164" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M164" s="6" t="n">
         <v>42.65</v>
@@ -13849,7 +13849,7 @@
         <v>1</v>
       </c>
       <c r="L165" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M165" s="6" t="n">
         <v>149.82</v>
@@ -13930,7 +13930,7 @@
         <v>1</v>
       </c>
       <c r="L166" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M166" s="6" t="n">
         <v>34.85</v>
@@ -14011,7 +14011,7 @@
         <v>1</v>
       </c>
       <c r="L167" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M167" s="6" t="n">
         <v>34.45</v>
@@ -14092,7 +14092,7 @@
         <v>1</v>
       </c>
       <c r="L168" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M168" s="6" t="n">
         <v>17.1</v>
@@ -14173,7 +14173,7 @@
         <v>1</v>
       </c>
       <c r="L169" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M169" s="6" t="n">
         <v>5.32</v>
@@ -14254,7 +14254,7 @@
         <v>1</v>
       </c>
       <c r="L170" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M170" s="6" t="n">
         <v>0</v>
@@ -14335,7 +14335,7 @@
         <v>1</v>
       </c>
       <c r="L171" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M171" s="6" t="n">
         <v>4.5</v>
@@ -14416,7 +14416,7 @@
         <v>1</v>
       </c>
       <c r="L172" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M172" s="6" t="n">
         <v>1.68</v>
@@ -14497,7 +14497,7 @@
         <v>1</v>
       </c>
       <c r="L173" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M173" s="6" t="n">
         <v>1.68</v>
@@ -14578,7 +14578,7 @@
         <v>1</v>
       </c>
       <c r="L174" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M174" s="6" t="n">
         <v>3.35</v>
@@ -14659,7 +14659,7 @@
         <v>1</v>
       </c>
       <c r="L175" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M175" s="6" t="n">
         <v>5.03</v>
@@ -14740,7 +14740,7 @@
         <v>1</v>
       </c>
       <c r="L176" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M176" s="6" t="n">
         <v>3.35</v>
@@ -14821,7 +14821,7 @@
         <v>1</v>
       </c>
       <c r="L177" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M177" s="6" t="n">
         <v>1.68</v>
@@ -14902,7 +14902,7 @@
         <v>1</v>
       </c>
       <c r="L178" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M178" s="6" t="n">
         <v>1.68</v>
@@ -14983,7 +14983,7 @@
         <v>1</v>
       </c>
       <c r="L179" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M179" s="6" t="n">
         <v>7.2</v>
@@ -15064,7 +15064,7 @@
         <v>1</v>
       </c>
       <c r="L180" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M180" s="6" t="n">
         <v>3.35</v>
@@ -15145,7 +15145,7 @@
         <v>1</v>
       </c>
       <c r="L181" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M181" s="6" t="n">
         <v>132.65</v>
@@ -15226,7 +15226,7 @@
         <v>1</v>
       </c>
       <c r="L182" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M182" s="6" t="n">
         <v>105.65</v>
@@ -15307,7 +15307,7 @@
         <v>1</v>
       </c>
       <c r="L183" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M183" s="6" t="n">
         <v>30.5</v>
@@ -15388,7 +15388,7 @@
         <v>1</v>
       </c>
       <c r="L184" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M184" s="6" t="n">
         <v>134.9</v>
@@ -15469,7 +15469,7 @@
         <v>1</v>
       </c>
       <c r="L185" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M185" s="6" t="n">
         <v>89.95</v>
@@ -15550,7 +15550,7 @@
         <v>1</v>
       </c>
       <c r="L186" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M186" s="6" t="n">
         <v>26.95</v>
@@ -15631,7 +15631,7 @@
         <v>1</v>
       </c>
       <c r="L187" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M187" s="6" t="n">
         <v>49.88</v>
@@ -15712,7 +15712,7 @@
         <v>1</v>
       </c>
       <c r="L188" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M188" s="6" t="n">
         <v>157.4</v>
@@ -15793,7 +15793,7 @@
         <v>1</v>
       </c>
       <c r="L189" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M189" s="6" t="n">
         <v>67.45</v>
@@ -15874,7 +15874,7 @@
         <v>1</v>
       </c>
       <c r="L190" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M190" s="6" t="n">
         <v>2</v>
@@ -15955,7 +15955,7 @@
         <v>1</v>
       </c>
       <c r="L191" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M191" s="6" t="n">
         <v>1.68</v>
@@ -16036,7 +16036,7 @@
         <v>3</v>
       </c>
       <c r="L192" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M192" s="6" t="n">
         <v>11.72</v>
@@ -16117,7 +16117,7 @@
         <v>1</v>
       </c>
       <c r="L193" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M193" s="6" t="n">
         <v>1.68</v>
@@ -16198,7 +16198,7 @@
         <v>1</v>
       </c>
       <c r="L194" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M194" s="6" t="n">
         <v>5.03</v>
@@ -16279,7 +16279,7 @@
         <v>2</v>
       </c>
       <c r="L195" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M195" s="6" t="n">
         <v>6.7</v>
@@ -16360,7 +16360,7 @@
         <v>1</v>
       </c>
       <c r="L196" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M196" s="6" t="n">
         <v>1.68</v>
@@ -16441,7 +16441,7 @@
         <v>1</v>
       </c>
       <c r="L197" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M197" s="6" t="n">
         <v>1.68</v>
@@ -16522,7 +16522,7 @@
         <v>1</v>
       </c>
       <c r="L198" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M198" s="6" t="n">
         <v>1.68</v>
@@ -16603,7 +16603,7 @@
         <v>2</v>
       </c>
       <c r="L199" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M199" s="6" t="n">
         <v>6.7</v>
@@ -16684,7 +16684,7 @@
         <v>1</v>
       </c>
       <c r="L200" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M200" s="6" t="n">
         <v>1.68</v>
@@ -16765,7 +16765,7 @@
         <v>1</v>
       </c>
       <c r="L201" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M201" s="6" t="n">
         <v>43.82</v>
@@ -16846,7 +16846,7 @@
         <v>1</v>
       </c>
       <c r="L202" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M202" s="6" t="n">
         <v>20.2</v>
@@ -16927,7 +16927,7 @@
         <v>1</v>
       </c>
       <c r="L203" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M203" s="6" t="n">
         <v>39.33</v>
@@ -17008,7 +17008,7 @@
         <v>1</v>
       </c>
       <c r="L204" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M204" s="6" t="n">
         <v>38.33</v>
@@ -17089,7 +17089,7 @@
         <v>1</v>
       </c>
       <c r="L205" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M205" s="6" t="n">
         <v>3.32</v>
@@ -17170,7 +17170,7 @@
         <v>1</v>
       </c>
       <c r="L206" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M206" s="6" t="n">
         <v>0.65</v>
@@ -17251,7 +17251,7 @@
         <v>1</v>
       </c>
       <c r="L207" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M207" s="6" t="n">
         <v>0.3</v>
@@ -17418,7 +17418,7 @@
         </is>
       </c>
       <c r="C221" s="5" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
